--- a/Carteira_cripto.xlsx
+++ b/Carteira_cripto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b6bb4f777028a843/Python/MeuProjeto/Projetos/dash_investimentos/Resumo_Investimentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_70D8CAB9CE4E4DF7E942280B10238494827EAEC5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD85745-5C3F-44C6-8ACB-B8C019DB4B9E}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_70D8CAB9CE4E4DF7E942280B10238494827EAEC5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86743322-1E26-4501-BB1F-C9A68128F880}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-3264" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Ativos</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>Qtde</t>
   </si>
   <si>
@@ -38,6 +35,12 @@
   </si>
   <si>
     <t>DOGE-USD</t>
+  </si>
+  <si>
+    <t>ValorDol</t>
+  </si>
+  <si>
+    <t>ValorReal</t>
   </si>
 </sst>
 </file>
@@ -131,6 +134,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,7 +431,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,37 +449,41 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>2.710191E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5.5097489999999999E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2486.10485204</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5.5097489999999999E-2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2486.10485204</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
